--- a/A2_results_step1.4_oneprice.xlsx
+++ b/A2_results_step1.4_oneprice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="115_{D619CB89-0F89-4B67-860D-3B2E7DB54B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{44145FE7-DA66-4EE4-AA01-E8723F45525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="p_DA" sheetId="1" r:id="rId1"/>
@@ -977,10 +977,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13616BE-8151-4770-BEF9-07A5CE2EFD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7F7C00-106E-4AB1-A4BC-3DC3A3B575CC}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1016,7 +1018,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -1046,7 +1048,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>122.3128283849027</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -1061,7 +1063,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>89.135700079824701</v>
+        <v>120.66865353303517</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
@@ -1115,10 +1117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E800272-4F45-4B7C-84FC-69B04597CF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F344D1-E35B-49E1-9FAB-765E07523EBC}">
   <dimension ref="A1:GR25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="GC1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:GR25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4736,604 +4740,604 @@
     </row>
     <row r="7" spans="1:200" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="E7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="F7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="G7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="H7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="I7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="J7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="K7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="L7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="N7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="O7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="P7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="Q7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="R7">
-        <v>-84</v>
+        <v>66</v>
       </c>
       <c r="S7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="T7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="U7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="V7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="W7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="X7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="Y7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="Z7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AA7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AB7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AC7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AD7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AE7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AF7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AG7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AH7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AI7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AJ7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AK7">
-        <v>-30</v>
+        <v>120</v>
       </c>
       <c r="AL7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AM7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AN7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AO7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AP7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AQ7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AR7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AS7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AT7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AU7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AV7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AW7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AX7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AY7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="AZ7">
-        <v>-61.5</v>
+        <v>88.5</v>
       </c>
       <c r="BA7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BB7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BC7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BD7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BE7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BF7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BG7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BH7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BI7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BJ7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BK7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BL7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BM7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BN7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BO7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BP7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BQ7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BR7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BS7">
-        <v>-102</v>
+        <v>48</v>
       </c>
       <c r="BT7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="BU7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="BV7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="BW7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="BX7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="BY7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="BZ7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CA7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CB7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CC7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CD7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CE7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CF7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CG7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CH7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CI7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CJ7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CK7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CL7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CM7">
-        <v>-136.5</v>
+        <v>13.5</v>
       </c>
       <c r="CN7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CO7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CP7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CQ7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CR7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CS7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CT7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CU7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CV7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CW7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CX7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CY7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="CZ7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DA7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DB7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DC7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DD7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DE7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DF7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DG7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DH7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DI7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DJ7">
-        <v>-141</v>
+        <v>9</v>
       </c>
       <c r="DK7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DL7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DM7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DN7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DO7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DP7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DQ7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DR7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DS7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DT7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DU7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DV7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DW7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DX7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DY7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="DZ7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="EA7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="EB7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="EC7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="ED7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="EE7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="EF7">
-        <v>-139.5</v>
+        <v>10.500000000000002</v>
       </c>
       <c r="EG7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EH7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EI7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EJ7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EK7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EL7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EM7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EN7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EO7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EP7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EQ7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="ER7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="ES7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="ET7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EU7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EV7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EW7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EX7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EY7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="EZ7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="FA7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="FB7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="FC7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="FD7">
-        <v>-90</v>
+        <v>60</v>
       </c>
       <c r="FE7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FF7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FG7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FH7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FI7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FJ7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FK7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FL7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FM7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FN7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FO7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FP7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FQ7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FR7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FS7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FT7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FU7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FV7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FW7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FX7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FY7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="FZ7">
-        <v>-124.5</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="GA7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GB7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GC7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GD7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GE7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GF7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GG7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GH7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GI7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GJ7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GK7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GL7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GM7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GN7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GO7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GP7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GQ7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
       <c r="GR7">
-        <v>-58.5</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="8" spans="1:200" x14ac:dyDescent="0.35">
@@ -8348,604 +8352,604 @@
     </row>
     <row r="13" spans="1:200" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="B13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="C13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="D13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="E13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="F13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="G13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="H13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="I13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="J13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="K13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="L13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="M13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="N13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="O13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="P13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="Q13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="R13">
-        <v>-87.812828384902701</v>
+        <v>-115.5</v>
       </c>
       <c r="S13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="T13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="U13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="V13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="W13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="X13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="Y13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="Z13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AA13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AB13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AC13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AD13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AE13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AF13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AG13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AH13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AI13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AJ13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AK13">
-        <v>-23.312828384902701</v>
+        <v>-51</v>
       </c>
       <c r="AL13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AM13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AN13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AO13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AP13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AQ13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AR13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AS13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AT13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AU13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AV13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AW13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AX13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AY13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="AZ13">
-        <v>-102.8128283849027</v>
+        <v>-130.5</v>
       </c>
       <c r="BA13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BB13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BC13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BD13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BE13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BF13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BG13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BH13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BI13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BJ13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BK13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BL13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BM13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BN13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BO13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BP13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BQ13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BR13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BS13">
-        <v>-93.812828384902701</v>
+        <v>-121.5</v>
       </c>
       <c r="BT13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="BU13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="BV13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="BW13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="BX13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="BY13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="BZ13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CA13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CB13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CC13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CD13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CE13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CF13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CG13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CH13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CI13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CJ13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CK13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CL13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CM13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="CN13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CO13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CP13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CQ13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CR13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CS13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CT13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CU13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CV13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CW13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CX13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CY13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="CZ13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DA13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DB13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DC13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DD13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DE13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DF13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DG13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DH13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DI13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DJ13">
-        <v>-120.8128283849027</v>
+        <v>-148.5</v>
       </c>
       <c r="DK13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DL13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DM13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DN13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DO13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DP13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DQ13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DR13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DS13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DT13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DU13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DV13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DW13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DX13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DY13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="DZ13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="EA13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="EB13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="EC13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="ED13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="EE13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="EF13">
-        <v>-113.3128283849027</v>
+        <v>-141</v>
       </c>
       <c r="EG13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EH13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EI13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EJ13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EK13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EL13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EM13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EN13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EO13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EP13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EQ13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="ER13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="ES13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="ET13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EU13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EV13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EW13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EX13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EY13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="EZ13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="FA13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="FB13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="FC13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="FD13">
-        <v>-84.812828384902701</v>
+        <v>-112.5</v>
       </c>
       <c r="FE13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FF13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FG13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FH13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FI13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FJ13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FK13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FL13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FM13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FN13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FO13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FP13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FQ13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FR13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FS13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FT13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FU13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FV13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FW13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FX13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FY13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="FZ13">
-        <v>-90.812828384902701</v>
+        <v>-118.5</v>
       </c>
       <c r="GA13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GB13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GC13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GD13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GE13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GF13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GG13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GH13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GI13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GJ13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GK13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GL13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GM13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GN13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GO13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GP13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GQ13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
       <c r="GR13">
-        <v>-65.312828384902701</v>
+        <v>-93</v>
       </c>
     </row>
     <row r="14" spans="1:200" x14ac:dyDescent="0.35">
@@ -10154,604 +10158,604 @@
     </row>
     <row r="16" spans="1:200" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="B16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="C16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="D16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="E16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="F16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="G16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="H16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="I16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="J16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="K16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="L16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="M16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="N16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="O16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="P16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="Q16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="R16">
-        <v>-57.635700079824701</v>
+        <v>-89.168653533035169</v>
       </c>
       <c r="S16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="T16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="U16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="V16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="W16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="X16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="Y16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="Z16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AA16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AB16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AC16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AD16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AE16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AF16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AG16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AH16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AI16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AJ16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AK16">
-        <v>-2.1357000798247014</v>
+        <v>-33.668653533035169</v>
       </c>
       <c r="AL16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AM16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AN16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AO16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AP16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AQ16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AR16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AS16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AT16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AU16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AV16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AW16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AX16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AY16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="AZ16">
-        <v>-54.635700079824701</v>
+        <v>-86.168653533035169</v>
       </c>
       <c r="BA16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BB16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BC16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BD16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BE16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BF16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BG16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BH16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BI16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BJ16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BK16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BL16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BM16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BN16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BO16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BP16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BQ16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BR16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BS16">
-        <v>-68.135700079824701</v>
+        <v>-99.668653533035169</v>
       </c>
       <c r="BT16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="BU16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="BV16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="BW16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="BX16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="BY16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="BZ16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CA16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CB16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CC16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CD16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CE16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CF16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CG16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CH16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CI16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CJ16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CK16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CL16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CM16">
-        <v>-83.135700079824701</v>
+        <v>-114.66865353303517</v>
       </c>
       <c r="CN16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CO16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CP16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CQ16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CR16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CS16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CT16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CU16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CV16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CW16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CX16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CY16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="CZ16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DA16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DB16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DC16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DD16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DE16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DF16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DG16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DH16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DI16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DJ16">
-        <v>-86.135700079824701</v>
+        <v>-117.66865353303517</v>
       </c>
       <c r="DK16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DL16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DM16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DN16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DO16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DP16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DQ16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DR16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DS16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DT16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DU16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DV16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DW16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DX16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DY16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="DZ16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="EA16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="EB16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="EC16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="ED16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="EE16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="EF16">
-        <v>-77.135700079824701</v>
+        <v>-108.66865353303517</v>
       </c>
       <c r="EG16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EH16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EI16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EJ16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EK16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EL16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EM16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EN16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EO16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EP16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EQ16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="ER16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="ES16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="ET16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EU16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EV16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EW16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EX16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EY16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="EZ16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="FA16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="FB16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="FC16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="FD16">
-        <v>-47.135700079824694</v>
+        <v>-78.668653533035155</v>
       </c>
       <c r="FE16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FF16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FG16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FH16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FI16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FJ16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FK16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FL16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FM16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FN16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FO16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FP16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FQ16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FR16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FS16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FT16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FU16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FV16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FW16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FX16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FY16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="FZ16">
-        <v>-35.135700079824701</v>
+        <v>-66.668653533035169</v>
       </c>
       <c r="GA16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GB16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GC16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GD16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GE16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GF16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GG16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GH16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GI16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GJ16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GK16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GL16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GM16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GN16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GO16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GP16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GQ16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
       <c r="GR16">
-        <v>-26.135700079824701</v>
+        <v>-57.668653533035169</v>
       </c>
     </row>
     <row r="17" spans="1:200" x14ac:dyDescent="0.35">
@@ -16178,10 +16182,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA38DF8E-04A2-4454-9C45-5D12A002D94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA02DC61-D1FC-4B49-BE05-870298D403B9}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A201"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -16192,1002 +16198,1002 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>524978.05629999132</v>
+        <v>523951.90796419338</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>482482.4425731033</v>
+        <v>554060.31007161271</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>724721.7317585703</v>
+        <v>726271.02601433964</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>498417.64606291888</v>
+        <v>587593.41188357328</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>569796.44612722995</v>
+        <v>520841.70938745799</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>639433.39263353753</v>
+        <v>617574.82324641268</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>492181.05192772963</v>
+        <v>581163.66682856146</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>868743.71796839067</v>
+        <v>855015.72488495836</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>894762.95310873899</v>
+        <v>881277.5605977166</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>633394.81244878354</v>
+        <v>635285.38344775431</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>752991.85574780288</v>
+        <v>723463.21722508396</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>743087.67417424743</v>
+        <v>735128.22072508407</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>646235.33566891705</v>
+        <v>773311.33954983193</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1225202.7192494788</v>
+        <v>1200645.5490125255</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1089817.9168581138</v>
+        <v>1276156.1474749485</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1952398.106778306</v>
+        <v>1851441.2447112678</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1878392.4434491855</v>
+        <v>1847950.0682112675</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1686417.776662735</v>
+        <v>1971956.5225774636</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1394094.0003789961</v>
+        <v>1508390.4254713207</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>913715.67255182529</v>
+        <v>875981.56418680679</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>885960.20315578277</v>
+        <v>880864.4223226438</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1001502.6295629191</v>
+        <v>1090678.3953835734</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1003018.0476272299</v>
+        <v>959739.7908874579</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>451099.87830502074</v>
+        <v>415812.41248036147</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>400445.57264438045</v>
+        <v>438033.66453927709</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1096052.1084133936</v>
+        <v>1187348.5250071746</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1443893.2135139422</v>
+        <v>1426953.2972725832</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1530671.9820695848</v>
+        <v>1657995.1927300827</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1539234.3405077695</v>
+        <v>1680801.0533045663</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1351941.3596742474</v>
+        <v>1343981.9062250841</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2167799.9622494788</v>
+        <v>2143242.7920125257</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2149016.6398581141</v>
+        <v>2335354.8704749481</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2739752.6472726241</v>
+        <v>2709959.2742468314</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2727976.7030577846</v>
+        <v>2949905.0200063372</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1441400.4768895041</v>
+        <v>1566887.2238533129</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>3493578.6089491858</v>
+        <v>3463136.2337112683</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>3498222.8381627351</v>
+        <v>3783761.584077464</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>477129.45729999139</v>
+        <v>476103.30896419357</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>629502.04237899638</v>
+        <v>736562.53947132046</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>431152.68888115603</v>
+        <v>496298.07985471276</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>272487.14976812742</v>
+        <v>251335.39648036144</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>249462.58514438054</v>
+        <v>286063.84503927716</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>561976.45291339385</v>
+        <v>648205.14950717473</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>496274.7879179545</v>
+        <v>488323.6570857194</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>747482.02341730404</v>
+        <v>705398.63008617156</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>648630.32557620527</v>
+        <v>753973.59482765675</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>753907.78200776957</v>
+        <v>885732.93080456671</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>511528.09669092676</v>
+        <v>614323.92910449125</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>950468.66458328464</v>
+        <v>1113720.0178687286</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1201281.3453861526</v>
+        <v>1139026.4820125257</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>1042374.3313581141</v>
+        <v>1216538.5679749483</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>685406.47088950418</v>
+        <v>802894.73785331333</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>319736.81072680233</v>
+        <v>263974.18196419353</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>479362.8924652774</v>
+        <v>410713.36801433977</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>309136.79355182563</v>
+        <v>257315.86718680669</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>237122.27716010087</v>
+        <v>285729.37362638663</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>310234.3963324537</v>
+        <v>259470.5823226436</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>357318.47912723006</v>
+        <v>297760.69838745799</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>324286.20654625713</v>
+        <v>304494.1608874579</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>181650.46680502067</v>
+        <v>139258.34698036147</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>237017.77692772963</v>
+        <v>302339.06782856141</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>461470.70951394195</v>
+        <v>441399.00927258306</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>382572.61754430243</v>
+        <v>477295.36895483371</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>426319.16140850086</v>
+        <v>404366.25658617157</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>353793.36757620517</v>
+        <v>435693.95882765681</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>479814.35196839075</v>
+        <v>462834.85688495846</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>359178.57024569425</v>
+        <v>311036.51544775424</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>321611.07494878373</v>
+        <v>320705.57994775422</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>330733.93216891703</v>
+        <v>420069.42604983196</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>681002.11666481092</v>
+        <v>586310.97981563548</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>370589.87738950422</v>
+        <v>462761.9363533131</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>191251.9242268024</v>
+        <v>114287.02346419352</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>271140.07146527729</v>
+        <v>173250.68101433967</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>146242.24551926603</v>
+        <v>130308.83918680665</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>194370.69362722998</v>
+        <v>112824.52688745799</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>207938.92955551803</v>
+        <v>135992.00074641264</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>124312.57741339382</v>
+        <v>163689.88400717467</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>163325.72791795441</v>
+        <v>140533.11108571931</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>257327.24651394197</v>
+        <v>215736.94227258311</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>152681.67607620516</v>
+        <v>199657.51532765679</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>268082.09346839081</v>
+        <v>229444.5483849585</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>172223.13450776949</v>
+        <v>236154.11930456662</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>185854.44944878368</v>
+        <v>172309.44444775421</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>237624.79274780286</v>
+        <v>175373.072225084</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>226763.32858328463</v>
+        <v>300024.83386872878</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>244205.71785811387</v>
+        <v>323616.38847494847</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>321479.34355778445</v>
+        <v>401027.71450633684</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>272427.86147099099</v>
+        <v>179715.31232334342</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>164032.0428895042</v>
+        <v>215098.13185331316</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>641236.20277830597</v>
+        <v>436281.17271126795</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>595437.65994918556</v>
+        <v>512650.78071126778</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>151112.1627268024</v>
+        <v>53250.323964193543</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>114309.36579999141</v>
+        <v>81896.059464193517</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>214018.21446527724</v>
+        <v>83472.936014339663</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>162423.4982585703</v>
+        <v>123291.17251433966</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>126373.69687899624</v>
+        <v>112633.0619713206</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>113575.69415578271</v>
+        <v>78424.8993226436</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>148310.61683089525</v>
+        <v>61999.256808213431</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>82411.40656291887</v>
+        <v>83689.662383573173</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>83866.596881597565</v>
+        <v>82133.688725084037</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>72970.384268127382</v>
+        <v>38272.78498036143</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>90685.494913393835</v>
+        <v>92737.551507174678</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>68900.692927729629</v>
+        <v>78617.193828561372</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>117881.85704430249</v>
+        <v>118825.31045483377</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>109887.45907620517</v>
+        <v>109317.37832765681</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>225943.51568836081</v>
+        <v>92621.39809771665</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>160020.92274569435</v>
+        <v>65144.243947754294</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>176528.18924780283</v>
+        <v>82133.688725083994</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>104791.32166891708</v>
+        <v>106034.56354983195</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>259620.12470437234</v>
+        <v>171488.73981563558</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>174711.92985811387</v>
+        <v>175931.42847494833</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>237213.25255778446</v>
+        <v>215887.60750633676</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>195314.2273054996</v>
+        <v>121287.73982334342</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>499953.90577830625</v>
+        <v>218532.76971126799</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>265222.63687899627</v>
+        <v>326956.79397132056</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>241222.46955182549</v>
+        <v>166188.07718680668</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>245444.04662723001</v>
+        <v>156112.73588745799</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>224462.00904625707</v>
+        <v>188292.15938745797</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>153716.99638159756</v>
+        <v>189659.81622508407</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>88861.180268127384</v>
+        <v>56128.226980361433</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>38041.195644380539</v>
+        <v>61817.041539277103</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>283949.51163353748</v>
+        <v>238908.29224641266</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>188722.62541339383</v>
+        <v>241891.56800717465</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>381118.21001394204</v>
+        <v>337384.39377258316</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>263527.44854430255</v>
+        <v>341684.36795483378</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>220050.45169092686</v>
+        <v>299142.82210449141</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>372200.75324780279</v>
+        <v>306958.51272508397</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>377984.36817424721</v>
+        <v>345852.26472508401</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>265733.49766891706</v>
+        <v>351349.30954983196</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>545471.85916481097</v>
+        <v>400883.06631563563</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>518719.98620437214</v>
+        <v>467369.76531563565</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>572473.27324947878</v>
+        <v>506940.00301252567</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>719731.2269410775</v>
+        <v>557635.74774683162</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>401901.48730549956</v>
+        <v>359333.86982334347</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>905513.58427830634</v>
+        <v>688196.76621126791</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>636766.53266273532</v>
+        <v>798718.75457746419</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>550747.57322680252</v>
+        <v>510973.51646419358</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>816437.15646527719</v>
+        <v>769323.75001433981</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>721829.37487899617</v>
+        <v>836125.79997132055</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>441997.05766010092</v>
+        <v>509115.80412638665</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>522218.14183245366</v>
+        <v>485406.34382264363</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>458411.56038115616</v>
+        <v>528086.6513547129</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>519969.80904625705</v>
+        <v>501561.45938745805</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>471886.40488159755</v>
+        <v>543689.20272508415</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>238027.92030502064</v>
+        <v>201110.51848036144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>219731.4672681274</v>
+        <v>198579.71398036144</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>620838.53313353751</v>
+        <v>598979.96374641254</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>470385.67092772957</v>
+        <v>559368.28582856141</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>839811.0776090594</v>
+        <v>795295.2722725831</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>737430.57104430255</v>
+        <v>865740.54845483368</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>902261.67608271446</v>
+        <v>842056.55288495857</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>910827.77468836075</v>
+        <v>864355.29709771648</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>887181.18210873904</v>
+        <v>873695.78959771676</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>799077.12150776945</v>
+        <v>940643.83430456684</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>651324.12194878375</v>
+        <v>653214.69294775417</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>590154.88669092685</v>
+        <v>702415.58710449131</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>1115074.0048581141</v>
+        <v>1301412.2354749483</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>848363.15147099108</v>
+        <v>807456.56432334345</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>840654.3673054995</v>
+        <v>826619.44982334343</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>2013200.4237783053</v>
+        <v>1941043.5977112676</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>527877.02507310337</v>
+        <v>599454.89257161296</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>521547.95805182547</v>
+        <v>483813.84968680661</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>513144.91701926594</v>
+        <v>501271.44668680668</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>539736.94865578273</v>
+        <v>526179.3678226436</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>484607.27088115609</v>
+        <v>554282.36185471283</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>607081.27449034678</v>
+        <v>589730.16880821344</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>190951.29630502069</v>
+        <v>155663.83048036144</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>185249.8257681274</v>
+        <v>157149.35248036138</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>861674.05310905958</v>
+        <v>819287.73777258315</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>819918.92890850082</v>
+        <v>784799.6900861715</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>832689.48756958463</v>
+        <v>960012.69823008287</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>952191.69368836074</v>
+        <v>908854.94209771673</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>879406.2551742472</v>
+        <v>856943.21172508388</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>1073026.1735832845</v>
+        <v>1247983.9348687287</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>1307020.0503861527</v>
+        <v>1254361.2030125256</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>1339381.4217494787</v>
+        <v>1290238.5915125257</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>1172248.9618581138</v>
+        <v>1358587.1924749485</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>1654079.2274410774</v>
+        <v>1598846.6162468314</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>1506782.1380577844</v>
+        <v>1728710.4550063366</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>901962.05747099093</v>
+        <v>863748.61232334364</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>932973.02380549954</v>
+        <v>901818.48632334359</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>815185.32338950422</v>
+        <v>940672.07035331312</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>702528.33279999148</v>
+        <v>701502.18446419365</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>1024305.2762585701</v>
+        <v>1025854.5705143396</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>636677.11251926608</v>
+        <v>632416.02218680666</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>712661.27383245353</v>
+        <v>677685.58382264338</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>757835.36049034656</v>
+        <v>750398.11480821343</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>352666.0053050206</v>
+        <v>317378.53948036133</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>317895.92976812733</v>
+        <v>296744.17648036144</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>703086.52141795435</v>
+        <v>695135.39058571926</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>1128993.8126090595</v>
+        <v>1086607.497272583</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>1031227.4755443025</v>
+        <v>1159537.4529548339</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>1016443.5949085009</v>
+        <v>997184.42608617153</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>968397.19357620506</v>
+        <v>1081283.3268276565</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>1160946.5964683907</v>
+        <v>1147218.6033849581</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>856572.38444878359</v>
+        <v>858462.95544775401</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>1501921.9892043723</v>
+        <v>1485078.2183156358</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>1642612.8687494788</v>
+        <v>1618055.6985125258</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>2719119.6492783069</v>
+        <v>2652710.9072112679</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>2620907.8469491852</v>
+        <v>2590465.4717112677</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.4_oneprice.xlsx
+++ b/A2_results_step1.4_oneprice.xlsx
@@ -1046,7 +1046,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1061,7 +1061,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>22.185072694681434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -8348,604 +8348,604 @@
     </row>
     <row r="13" spans="1:200">
       <c r="A13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="B13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="C13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="D13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="E13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="F13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="G13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="H13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="I13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="J13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="K13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="L13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="M13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="N13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="O13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="P13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="Q13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="R13">
-        <v>34.5</v>
+        <v>-115.5</v>
       </c>
       <c r="S13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="T13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="U13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="V13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="W13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="X13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="Y13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="Z13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AA13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AB13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AC13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AD13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AE13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AF13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AG13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AH13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AI13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AJ13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AK13">
-        <v>99.0</v>
+        <v>-51.0</v>
       </c>
       <c r="AL13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AM13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AN13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AO13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AP13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AQ13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AR13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AS13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AT13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AU13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AV13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AW13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AX13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AY13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="AZ13">
-        <v>19.5</v>
+        <v>-130.5</v>
       </c>
       <c r="BA13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BB13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BC13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BD13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BE13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BF13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BG13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BH13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BI13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BJ13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BK13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BL13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BM13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BN13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BO13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BP13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BQ13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BR13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BS13">
-        <v>28.5</v>
+        <v>-121.5</v>
       </c>
       <c r="BT13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="BU13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="BV13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="BW13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="BX13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="BY13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="BZ13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CA13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CB13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CC13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CD13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CE13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CF13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CG13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CH13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CI13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CJ13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CK13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CL13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CM13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="CN13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CO13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CP13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CQ13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CR13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CS13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CT13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CU13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CV13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CW13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CX13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CY13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="CZ13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DA13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DB13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DC13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DD13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DE13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DF13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DG13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DH13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DI13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DJ13">
-        <v>1.5</v>
+        <v>-148.5</v>
       </c>
       <c r="DK13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DL13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DM13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DN13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DO13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DP13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DQ13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DR13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DS13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DT13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DU13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DV13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DW13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DX13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DY13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="DZ13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="EA13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="EB13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="EC13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="ED13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="EE13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="EF13">
-        <v>9.0</v>
+        <v>-141.0</v>
       </c>
       <c r="EG13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EH13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EI13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EJ13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EK13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EL13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EM13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EN13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EO13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EP13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EQ13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="ER13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="ES13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="ET13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EU13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EV13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EW13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EX13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EY13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="EZ13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="FA13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="FB13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="FC13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="FD13">
-        <v>37.5</v>
+        <v>-112.5</v>
       </c>
       <c r="FE13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FF13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FG13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FH13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FI13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FJ13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FK13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FL13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FM13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FN13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FO13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FP13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FQ13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FR13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FS13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FT13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FU13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FV13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FW13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FX13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FY13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="FZ13">
-        <v>31.5</v>
+        <v>-118.5</v>
       </c>
       <c r="GA13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GB13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GC13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GD13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GE13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GF13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GG13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GH13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GI13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GJ13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GK13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GL13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GM13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GN13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GO13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GP13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GQ13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
       <c r="GR13">
-        <v>57.0</v>
+        <v>-93.0</v>
       </c>
     </row>
     <row r="14" spans="1:200">
@@ -10154,604 +10154,604 @@
     </row>
     <row r="16" spans="1:200">
       <c r="A16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="B16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="C16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="D16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="E16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="F16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="G16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="H16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="I16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="J16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="K16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="L16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="M16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="N16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="O16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="P16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="Q16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="R16">
-        <v>9.314927305318566</v>
+        <v>31.5</v>
       </c>
       <c r="S16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="T16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="U16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="V16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="W16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="X16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="Y16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="Z16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AA16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AB16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AC16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AD16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AE16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AF16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AG16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AH16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AI16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AJ16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AK16">
-        <v>64.81492730531856</v>
+        <v>87.0</v>
       </c>
       <c r="AL16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AM16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AN16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AO16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AP16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AQ16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AR16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AS16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AT16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AU16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AV16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AW16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AX16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AY16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="AZ16">
-        <v>12.314927305318566</v>
+        <v>34.5</v>
       </c>
       <c r="BA16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BB16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BC16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BD16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BE16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BF16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BG16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BH16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BI16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BJ16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BK16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BL16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BM16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BN16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BO16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BP16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BQ16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BR16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BS16">
-        <v>-1.1850726946814305</v>
+        <v>21.000000000000004</v>
       </c>
       <c r="BT16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="BU16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="BV16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="BW16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="BX16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="BY16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="BZ16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CA16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CB16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CC16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CD16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CE16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CF16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CG16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CH16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CI16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CJ16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CK16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CL16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CM16">
-        <v>-16.185072694681434</v>
+        <v>6.0</v>
       </c>
       <c r="CN16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CO16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CP16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CQ16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CR16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CS16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CT16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CU16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CV16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CW16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CX16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CY16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="CZ16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DA16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DB16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DC16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DD16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DE16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DF16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DG16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DH16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DI16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DJ16">
-        <v>-19.185072694681434</v>
+        <v>3.0</v>
       </c>
       <c r="DK16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DL16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DM16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DN16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DO16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DP16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DQ16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DR16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DS16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DT16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DU16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DV16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DW16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DX16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DY16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="DZ16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="EA16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="EB16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="EC16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="ED16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="EE16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="EF16">
-        <v>-10.185072694681434</v>
+        <v>12.0</v>
       </c>
       <c r="EG16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EH16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EI16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EJ16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EK16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EL16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EM16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EN16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EO16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EP16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EQ16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="ER16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="ES16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="ET16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EU16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EV16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EW16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EX16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EY16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="EZ16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="FA16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="FB16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="FC16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="FD16">
-        <v>19.814927305318573</v>
+        <v>42.00000000000001</v>
       </c>
       <c r="FE16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FF16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FG16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FH16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FI16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FJ16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FK16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FL16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FM16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FN16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FO16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FP16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FQ16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FR16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FS16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FT16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FU16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FV16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FW16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FX16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FY16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="FZ16">
-        <v>31.814927305318566</v>
+        <v>54.0</v>
       </c>
       <c r="GA16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GB16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GC16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GD16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GE16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GF16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GG16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GH16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GI16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GJ16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GK16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GL16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GM16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GN16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GO16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GP16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GQ16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
       <c r="GR16">
-        <v>40.81492730531856</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="17" spans="1:200">
@@ -16192,1002 +16192,1002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>506431.78045956965</v>
+        <v>510961.67249999987</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>559834.8150808603</v>
+        <v>566579.9309999999</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>699417.7442115116</v>
+        <v>707849.076</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>594438.7622808208</v>
+        <v>600851.6595000002</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>533718.2424663911</v>
+        <v>522892.245</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>593234.8059697769</v>
+        <v>597995.148</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>585666.6650401315</v>
+        <v>591470.814</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>822946.6327913761</v>
+        <v>831020.4629999999</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>852019.9862096196</v>
+        <v>857685.786</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>615480.9441568911</v>
+        <v>620196.1904999999</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>741421.2599568312</v>
+        <v>726587.7120000002</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>708023.7134568313</v>
+        <v>714080.0655</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>782457.8040863374</v>
+        <v>791235.0</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1.1567474898305116e6</v>
+        <v>1.1652600014999998e6</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1.2929886158389763e6</v>
+        <v>1.3059511425e6</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>1.8931440848914552e6</v>
+        <v>1.8553319924999997e6</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>1.7801958083914556e6</v>
+        <v>1.7949446159999997e6</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1.9980079422170883e6</v>
+        <v>2.0210712269999995e6</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1.5157375390769767e6</v>
+        <v>1.5279880755e6</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>889558.051417596</v>
+        <v>876089.709</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>863325.8250836488</v>
+        <v>867738.1050000001</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1.0975237457808207e6</v>
+        <v>1.1039366430000004e6</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>972616.3239663913</v>
+        <v>961790.3265000001</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>423697.8246953795</v>
+        <v>419663.88300000003</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>439892.4901092411</v>
+        <v>441911.9234999999</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1.1962899595604462e6</v>
+        <v>1.2033252255000002e6</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1.3959382136395639e6</v>
+        <v>1.4036385255000002e6</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1.6675573769172477e6</v>
+        <v>1.6789101164999995e6</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>1.6918425520807605e6</v>
+        <v>1.7003645024999997e6</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1.3168773989568313e6</v>
+        <v>1.322933751e6</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2.0993447328305114e6</v>
+        <v>2.1078572445e6</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>2.3521873388389763e6</v>
+        <v>2.3651498655e6</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>2.65240677593084e6</v>
+        <v>2.6633255549999997e6</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>2.9743561666383194e6</v>
+        <v>2.9922842084999997e6</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1.5789805666788488e6</v>
+        <v>1.5877540095e6</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>3.395381973891456e6</v>
+        <v>3.4101307815e6</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>3.8098130037170886e6</v>
+        <v>3.8328762885e6</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>458583.1814595699</v>
+        <v>463113.07350000006</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>743909.6530769767</v>
+        <v>756160.1895</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>501981.2743327027</v>
+        <v>508447.71449999994</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>241591.1586953794</v>
+        <v>243605.667</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>287922.6706092412</v>
+        <v>289942.104</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>657146.5840604462</v>
+        <v>664181.8500000001</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>470659.4329799343</v>
+        <v>475104.0585000001</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>723010.2564615117</v>
+        <v>709102.9619999999</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>764636.3920769768</v>
+        <v>772998.381</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>896774.4295807609</v>
+        <v>905296.38</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>620856.0076862178</v>
+        <v>627724.5149999998</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1.126589380690002e6</v>
+        <v>1.1404437944999998e6</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1.1660920728305117e6</v>
+        <v>1.1446170344999998e6</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1.2333710363389766e6</v>
+        <v>1.2463335630000003e6</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>814988.0806788491</v>
+        <v>823761.5235000001</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>275719.80445956974</v>
+        <v>264444.7965</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>430219.53621151164</v>
+        <v>409537.66800000006</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>270892.3544175961</v>
+        <v>257424.012</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>290329.7491648079</v>
+        <v>298200.38399999996</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>271325.98508364864</v>
+        <v>260447.265</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>310637.2314663911</v>
+        <v>299811.23400000005</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>284437.44396639115</v>
+        <v>288783.19649999996</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>147143.7591953794</v>
+        <v>143109.8175</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>306842.0660401315</v>
+        <v>312646.21499999997</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>410383.9256395637</v>
+        <v>418084.23749999993</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>486423.5362208723</v>
+        <v>497131.0124999999</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>376091.8329615117</v>
+        <v>381637.1385</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>446356.7560769768</v>
+        <v>454718.745</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>430765.76479137613</v>
+        <v>438839.5949999999</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>324308.876156891</v>
+        <v>312725.1225</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>300901.140656891</v>
+        <v>305616.38699999993</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>429215.8905863376</v>
+        <v>437993.08650000003</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>613713.3734049989</v>
+        <v>590202.3164999998</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>474855.2791788489</v>
+        <v>483628.722</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>126032.64595956977</v>
+        <v>114757.63799999999</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>192756.84921151158</v>
+        <v>172074.98099999997</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>112131.97641759606</v>
+        <v>117729.68399999998</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>125701.05996639116</v>
+        <v>114875.06250000003</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>151390.5834697769</v>
+        <v>139594.9755</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>172631.3185604462</v>
+        <v>179666.58450000003</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>122868.88697993426</v>
+        <v>127313.51250000001</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>184721.8586395638</v>
+        <v>192422.17049999998</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>210320.31257697675</v>
+        <v>218682.30149999994</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>197375.45629137618</v>
+        <v>205449.2865</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>247195.61808076082</v>
+        <v>255717.56849999996</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>152505.005156891</v>
+        <v>157220.25149999998</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>193331.11495683127</v>
+        <v>178497.56699999998</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>312894.19669000205</v>
+        <v>326748.6105</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>340448.8568389764</v>
+        <v>353411.3835</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>425478.86113831925</v>
+        <v>443406.90299999993</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>197963.46591057553</v>
+        <v>183548.2695</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>227191.47467884896</v>
+        <v>235964.9175</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>477984.0128914558</v>
+        <v>440171.9205</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>444896.52089145564</v>
+        <v>459645.3285</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>64995.94645956977</v>
+        <v>53720.9385</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>64375.931959569774</v>
+        <v>68905.824</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>102979.10421151157</v>
+        <v>82297.23599999998</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>96437.89071151156</v>
+        <v>104869.22249999996</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>119980.17557697676</v>
+        <v>132230.71199999997</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>60886.302083648654</v>
+        <v>65298.58200000001</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>74320.0566095897</v>
+        <v>63631.683000000005</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>90535.01278082063</v>
+        <v>96947.91</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>89313.87256721774</v>
+        <v>95794.1175</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>28528.547195379404</v>
+        <v>30543.0555</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>101678.9860604462</v>
+        <v>108714.25200000001</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>83120.19204013147</v>
+        <v>88924.34099999997</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>127953.47772087244</v>
+        <v>138660.954</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>119980.17557697676</v>
+        <v>128342.1645</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>110837.47370961955</v>
+        <v>96649.72349999998</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>78416.60465689101</v>
+        <v>66832.851</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>100091.73145683127</v>
+        <v>85258.18349999998</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>115181.02808633745</v>
+        <v>123958.22399999999</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>131216.98340499893</v>
+        <v>140873.62649999995</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>192763.89683897633</v>
+        <v>205726.42349999992</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>240338.75413831917</v>
+        <v>258266.79599999991</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>90946.24341057554</v>
+        <v>96587.99699999999</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>260235.60989145577</v>
+        <v>222423.51750000002</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>334303.90757697675</v>
+        <v>346554.44399999996</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>179764.56441759606</v>
+        <v>166296.22199999998</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>168989.26896639116</v>
+        <v>158163.27150000003</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>168235.44246639113</v>
+        <v>172581.195</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>196840.00006721774</v>
+        <v>203320.245</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>46383.9891953794</v>
+        <v>48398.49749999999</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>63675.867109241175</v>
+        <v>65695.30049999998</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>214568.2749697769</v>
+        <v>219328.61699999997</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>250833.00256044618</v>
+        <v>257868.26849999998</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>306369.3101395638</v>
+        <v>314069.62200000003</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>350812.53522087244</v>
+        <v>361520.0115</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>305674.90068621794</v>
+        <v>312543.40800000005</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>324916.55545683124</v>
+        <v>310083.0075</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>318747.7574568313</v>
+        <v>324804.1095</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>360495.7740863375</v>
+        <v>369272.97000000003</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>428285.45990499895</v>
+        <v>404774.403</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>427098.00890499895</v>
+        <v>436754.65200000006</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>463041.9438305117</v>
+        <v>471554.45549999987</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>590737.0994308403</v>
+        <v>561890.2785</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>328992.37341057556</v>
+        <v>334634.127</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>729899.6063914559</v>
+        <v>692087.5140000001</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>824770.1742170884</v>
+        <v>847833.4589999998</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>522719.13895956986</v>
+        <v>511444.13100000005</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>788829.9182115116</v>
+        <v>768148.05</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>843472.9135769767</v>
+        <v>855723.4499999998</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>513716.17966480786</v>
+        <v>521586.8145</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>497261.7465836486</v>
+        <v>486383.02650000004</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>533769.8458327027</v>
+        <v>540236.2860000001</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>481504.7424663912</v>
+        <v>485850.49500000005</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>550869.3865672179</v>
+        <v>557349.6315000001</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>208995.93069537941</v>
+        <v>204961.989</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>188835.47619537942</v>
+        <v>190849.98450000002</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>574639.9464697769</v>
+        <v>579400.2884999999</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>563871.2840401315</v>
+        <v>569675.433</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>817182.1886395636</v>
+        <v>798774.4004999999</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>874868.7157208724</v>
+        <v>885576.192</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>864563.4607913762</v>
+        <v>845136.8910000001</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>882571.3727096196</v>
+        <v>868383.6225</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>844438.2152096195</v>
+        <v>850104.015</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>951685.3330807609</v>
+        <v>960207.2835</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>633410.2536568909</v>
+        <v>638125.5</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>708947.6656862178</v>
+        <v>715816.173</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>1.3182447038389766e6</v>
+        <v>1.3312072304999998e6</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>825704.7179105754</v>
+        <v>811289.5215</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>796277.9534105755</v>
+        <v>801919.7069999999</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>1.9827464378914556e6</v>
+        <v>1.9449343454999996e6</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>605229.3975808604</v>
+        <v>611974.5135</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>497390.336917596</v>
+        <v>483921.9945</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>483094.5839175961</v>
+        <v>488692.2915</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>508640.7705836487</v>
+        <v>513053.0505</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>559965.5563327027</v>
+        <v>566431.9965</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>570564.0186095897</v>
+        <v>574839.495</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>163549.2426953794</v>
+        <v>159515.301</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>147405.11469537937</v>
+        <v>149419.623</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>841174.6541395639</v>
+        <v>822766.866</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>756525.2664615115</v>
+        <v>762070.5719999999</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>969574.8824172475</v>
+        <v>980927.622</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>927071.0177096196</v>
+        <v>912883.2675000001</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>829838.7044568312</v>
+        <v>835895.0565</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>1.260853297690002e6</v>
+        <v>1.2747077115e6</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>1.2814267938305116e6</v>
+        <v>1.2599517555e6</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>1.2463405323305116e6</v>
+        <v>1.254853044e6</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1.3754196608389763e6</v>
+        <v>1.3883821875000002e6</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>1.6319479679308403e6</v>
+        <v>1.6031011469999999e6</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>1.753161601638319e6</v>
+        <v>1.7710896434999998e6</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>881996.7659105755</v>
+        <v>867581.5695000001</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>871476.9899105756</v>
+        <v>877118.7435000001</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>952765.4131788488</v>
+        <v>961538.8559999999</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>683982.0569595698</v>
+        <v>688511.9490000001</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>999001.2887115116</v>
+        <v>1.0074326205e6</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>614239.1594175961</v>
+        <v>619836.867</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>689540.9865836485</v>
+        <v>678662.2664999998</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>731231.9646095897</v>
+        <v>735507.441</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>325263.9516953792</v>
+        <v>321230.00999999983</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>286999.9386953795</v>
+        <v>289014.4470000001</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>677471.1664799342</v>
+        <v>681915.792</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>1.1084944136395638e6</v>
+        <v>1.0900866254999998e6</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>1.1686656202208723e6</v>
+        <v>1.1793730965e6</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>968910.0024615115</v>
+        <v>974455.3079999998</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1.091946124076977e6</v>
+        <v>1.100308113e6</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>1.1151495112913758e6</v>
+        <v>1.1232233415e6</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>838658.5161568908</v>
+        <v>843373.7624999997</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1.4448064619049989e6</v>
+        <v>1.4544631050000002e6</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1.5741576393305117e6</v>
+        <v>1.5826701509999998e6</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2.694413747391456e6</v>
+        <v>2.656601655e6</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>2.5227112118914556e6</v>
+        <v>2.5374600195e6</v>
       </c>
     </row>
   </sheetData>
